--- a/Team-Data/2012-13/12-17-2012-13.xlsx
+++ b/Team-Data/2012-13/12-17-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,13 +811,13 @@
         <v>2.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE2" t="n">
         <v>8</v>
       </c>
       <c r="AF2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG2" t="n">
         <v>7</v>
@@ -759,22 +826,22 @@
         <v>22</v>
       </c>
       <c r="AI2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK2" t="n">
         <v>7</v>
       </c>
       <c r="AL2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM2" t="n">
         <v>5</v>
       </c>
       <c r="AN2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO2" t="n">
         <v>28</v>
@@ -786,10 +853,10 @@
         <v>28</v>
       </c>
       <c r="AR2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT2" t="n">
         <v>24</v>
@@ -810,13 +877,13 @@
         <v>7</v>
       </c>
       <c r="AZ2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA2" t="n">
         <v>13</v>
       </c>
       <c r="BB2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC2" t="n">
         <v>7</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-17-2012-13</t>
+          <t>2012-12-17</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-0.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AE3" t="n">
         <v>14</v>
@@ -980,7 +1047,7 @@
         <v>2</v>
       </c>
       <c r="AV3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AW3" t="n">
         <v>8</v>
@@ -992,7 +1059,7 @@
         <v>10</v>
       </c>
       <c r="AZ3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA3" t="n">
         <v>16</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-17-2012-13</t>
+          <t>2012-12-17</t>
         </is>
       </c>
     </row>
@@ -1108,16 +1175,16 @@
         <v>2.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AE4" t="n">
         <v>9</v>
       </c>
       <c r="AF4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
         <v>8</v>
@@ -1129,7 +1196,7 @@
         <v>23</v>
       </c>
       <c r="AK4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AL4" t="n">
         <v>9</v>
@@ -1153,10 +1220,10 @@
         <v>8</v>
       </c>
       <c r="AS4" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AT4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU4" t="n">
         <v>18</v>
@@ -1168,13 +1235,13 @@
         <v>26</v>
       </c>
       <c r="AX4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY4" t="n">
         <v>5</v>
       </c>
       <c r="AZ4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA4" t="n">
         <v>5</v>
@@ -1183,7 +1250,7 @@
         <v>19</v>
       </c>
       <c r="BC4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-17-2012-13</t>
+          <t>2012-12-17</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-7.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AE5" t="n">
         <v>24</v>
@@ -1305,10 +1372,10 @@
         <v>6</v>
       </c>
       <c r="AI5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK5" t="n">
         <v>27</v>
@@ -1320,10 +1387,10 @@
         <v>18</v>
       </c>
       <c r="AN5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP5" t="n">
         <v>5</v>
@@ -1332,13 +1399,13 @@
         <v>13</v>
       </c>
       <c r="AR5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS5" t="n">
         <v>22</v>
       </c>
       <c r="AT5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU5" t="n">
         <v>28</v>
@@ -1359,7 +1426,7 @@
         <v>13</v>
       </c>
       <c r="BA5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB5" t="n">
         <v>18</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-17-2012-13</t>
+          <t>2012-12-17</t>
         </is>
       </c>
     </row>
@@ -1394,85 +1461,85 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.591</v>
       </c>
       <c r="H6" t="n">
         <v>48.2</v>
       </c>
       <c r="I6" t="n">
-        <v>35</v>
+        <v>35.4</v>
       </c>
       <c r="J6" t="n">
-        <v>79.90000000000001</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.439</v>
+        <v>0.442</v>
       </c>
       <c r="L6" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="M6" t="n">
         <v>12.5</v>
       </c>
       <c r="N6" t="n">
-        <v>0.334</v>
+        <v>0.341</v>
       </c>
       <c r="O6" t="n">
-        <v>18.2</v>
+        <v>18.5</v>
       </c>
       <c r="P6" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.8070000000000001</v>
+      </c>
+      <c r="R6" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="T6" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="U6" t="n">
         <v>22.7</v>
       </c>
-      <c r="Q6" t="n">
-        <v>0.801</v>
-      </c>
-      <c r="R6" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="S6" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="T6" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="U6" t="n">
-        <v>22.3</v>
-      </c>
       <c r="V6" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="W6" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X6" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="Y6" t="n">
         <v>5.7</v>
       </c>
       <c r="Z6" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="AA6" t="n">
         <v>20.7</v>
       </c>
       <c r="AB6" t="n">
-        <v>92.5</v>
+        <v>93.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AE6" t="n">
         <v>9</v>
@@ -1484,16 +1551,16 @@
         <v>9</v>
       </c>
       <c r="AH6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI6" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AJ6" t="n">
         <v>24</v>
       </c>
       <c r="AK6" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AL6" t="n">
         <v>30</v>
@@ -1502,7 +1569,7 @@
         <v>30</v>
       </c>
       <c r="AN6" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AO6" t="n">
         <v>7</v>
@@ -1511,7 +1578,7 @@
         <v>11</v>
       </c>
       <c r="AQ6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR6" t="n">
         <v>10</v>
@@ -1523,7 +1590,7 @@
         <v>7</v>
       </c>
       <c r="AU6" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AV6" t="n">
         <v>22</v>
@@ -1532,22 +1599,22 @@
         <v>23</v>
       </c>
       <c r="AX6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY6" t="n">
         <v>19</v>
       </c>
-      <c r="AY6" t="n">
-        <v>20</v>
-      </c>
       <c r="AZ6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB6" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BC6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-17-2012-13</t>
+          <t>2012-12-17</t>
         </is>
       </c>
     </row>
@@ -1654,13 +1721,13 @@
         <v>-5.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
         <v>28</v>
       </c>
       <c r="AF7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG7" t="n">
         <v>29</v>
@@ -1669,7 +1736,7 @@
         <v>19</v>
       </c>
       <c r="AI7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ7" t="n">
         <v>3</v>
@@ -1690,7 +1757,7 @@
         <v>24</v>
       </c>
       <c r="AP7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ7" t="n">
         <v>26</v>
@@ -1726,7 +1793,7 @@
         <v>15</v>
       </c>
       <c r="BB7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC7" t="n">
         <v>26</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-17-2012-13</t>
+          <t>2012-12-17</t>
         </is>
       </c>
     </row>
@@ -1836,10 +1903,10 @@
         <v>-1.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF8" t="n">
         <v>20</v>
@@ -1854,13 +1921,13 @@
         <v>7</v>
       </c>
       <c r="AJ8" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AK8" t="n">
         <v>9</v>
       </c>
       <c r="AL8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM8" t="n">
         <v>12</v>
@@ -1875,7 +1942,7 @@
         <v>16</v>
       </c>
       <c r="AQ8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR8" t="n">
         <v>28</v>
@@ -1887,10 +1954,10 @@
         <v>18</v>
       </c>
       <c r="AU8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW8" t="n">
         <v>19</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-17-2012-13</t>
+          <t>2012-12-17</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>1.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE9" t="n">
         <v>9</v>
@@ -2042,13 +2109,13 @@
         <v>6</v>
       </c>
       <c r="AL9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM9" t="n">
         <v>22</v>
       </c>
-      <c r="AM9" t="n">
-        <v>21</v>
-      </c>
       <c r="AN9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO9" t="n">
         <v>14</v>
@@ -2072,7 +2139,7 @@
         <v>12</v>
       </c>
       <c r="AV9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW9" t="n">
         <v>18</v>
@@ -2090,7 +2157,7 @@
         <v>3</v>
       </c>
       <c r="BB9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC9" t="n">
         <v>13</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-17-2012-13</t>
+          <t>2012-12-17</t>
         </is>
       </c>
     </row>
@@ -2122,82 +2189,82 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G10" t="n">
-        <v>0.259</v>
+        <v>0.269</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
       </c>
       <c r="I10" t="n">
-        <v>34.8</v>
+        <v>35</v>
       </c>
       <c r="J10" t="n">
-        <v>79.7</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.437</v>
+        <v>0.438</v>
       </c>
       <c r="L10" t="n">
         <v>5.7</v>
       </c>
       <c r="M10" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="N10" t="n">
-        <v>0.363</v>
+        <v>0.364</v>
       </c>
       <c r="O10" t="n">
-        <v>18</v>
+        <v>18.3</v>
       </c>
       <c r="P10" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.728</v>
+        <v>0.732</v>
       </c>
       <c r="R10" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S10" t="n">
-        <v>30.1</v>
+        <v>30.3</v>
       </c>
       <c r="T10" t="n">
-        <v>41.6</v>
+        <v>41.9</v>
       </c>
       <c r="U10" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="V10" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W10" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="X10" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y10" t="n">
         <v>6.1</v>
       </c>
       <c r="Z10" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA10" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="AB10" t="n">
-        <v>93.40000000000001</v>
+        <v>94</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3.6</v>
+        <v>-3.3</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -2206,7 +2273,7 @@
         <v>24</v>
       </c>
       <c r="AF10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG10" t="n">
         <v>26</v>
@@ -2215,7 +2282,7 @@
         <v>21</v>
       </c>
       <c r="AI10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ10" t="n">
         <v>25</v>
@@ -2230,7 +2297,7 @@
         <v>27</v>
       </c>
       <c r="AN10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO10" t="n">
         <v>9</v>
@@ -2239,31 +2306,31 @@
         <v>7</v>
       </c>
       <c r="AQ10" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AR10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AT10" t="n">
         <v>16</v>
       </c>
-      <c r="AS10" t="n">
-        <v>18</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>17</v>
-      </c>
       <c r="AU10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW10" t="n">
         <v>27</v>
       </c>
       <c r="AX10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ10" t="n">
         <v>17</v>
@@ -2272,10 +2339,10 @@
         <v>6</v>
       </c>
       <c r="BB10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-17-2012-13</t>
+          <t>2012-12-17</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>1.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE11" t="n">
         <v>5</v>
@@ -2394,7 +2461,7 @@
         <v>7</v>
       </c>
       <c r="AH11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI11" t="n">
         <v>6</v>
@@ -2412,19 +2479,19 @@
         <v>13</v>
       </c>
       <c r="AN11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO11" t="n">
         <v>18</v>
       </c>
       <c r="AP11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ11" t="n">
         <v>10</v>
       </c>
       <c r="AR11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS11" t="n">
         <v>1</v>
@@ -2445,7 +2512,7 @@
         <v>29</v>
       </c>
       <c r="AY11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ11" t="n">
         <v>27</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-17-2012-13</t>
+          <t>2012-12-17</t>
         </is>
       </c>
     </row>
@@ -2486,28 +2553,28 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F12" t="n">
         <v>12</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5</v>
+        <v>0.478</v>
       </c>
       <c r="H12" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I12" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J12" t="n">
-        <v>84.2</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>0.441</v>
+        <v>0.438</v>
       </c>
       <c r="L12" t="n">
         <v>9.6</v>
@@ -2522,70 +2589,70 @@
         <v>20.1</v>
       </c>
       <c r="P12" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.769</v>
+        <v>0.768</v>
       </c>
       <c r="R12" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="S12" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="T12" t="n">
-        <v>44.2</v>
+        <v>44.3</v>
       </c>
       <c r="U12" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="V12" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="W12" t="n">
-        <v>8.699999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="X12" t="n">
         <v>4.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="Z12" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="AA12" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>104</v>
+        <v>103.7</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.3</v>
+        <v>-0.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE12" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AF12" t="n">
         <v>15</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ12" t="n">
         <v>4</v>
       </c>
       <c r="AK12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL12" t="n">
         <v>2</v>
@@ -2606,7 +2673,7 @@
         <v>12</v>
       </c>
       <c r="AR12" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AS12" t="n">
         <v>6</v>
@@ -2615,13 +2682,13 @@
         <v>6</v>
       </c>
       <c r="AU12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV12" t="n">
         <v>30</v>
       </c>
       <c r="AW12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX12" t="n">
         <v>24</v>
@@ -2630,10 +2697,10 @@
         <v>27</v>
       </c>
       <c r="AZ12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB12" t="n">
         <v>3</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-17-2012-13</t>
+          <t>2012-12-17</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>0.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE13" t="n">
         <v>9</v>
@@ -2758,13 +2825,13 @@
         <v>13</v>
       </c>
       <c r="AH13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK13" t="n">
         <v>28</v>
@@ -2776,7 +2843,7 @@
         <v>14</v>
       </c>
       <c r="AN13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO13" t="n">
         <v>21</v>
@@ -2785,7 +2852,7 @@
         <v>15</v>
       </c>
       <c r="AQ13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR13" t="n">
         <v>9</v>
@@ -2809,7 +2876,7 @@
         <v>3</v>
       </c>
       <c r="AY13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ13" t="n">
         <v>8</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-17-2012-13</t>
+          <t>2012-12-17</t>
         </is>
       </c>
     </row>
@@ -2850,46 +2917,46 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14" t="n">
         <v>6</v>
       </c>
       <c r="G14" t="n">
-        <v>0.75</v>
+        <v>0.739</v>
       </c>
       <c r="H14" t="n">
         <v>48.2</v>
       </c>
       <c r="I14" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="J14" t="n">
-        <v>80.8</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.479</v>
+        <v>0.48</v>
       </c>
       <c r="L14" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M14" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="N14" t="n">
-        <v>0.348</v>
+        <v>0.354</v>
       </c>
       <c r="O14" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="P14" t="n">
-        <v>23.8</v>
+        <v>24.1</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.738</v>
+        <v>0.737</v>
       </c>
       <c r="R14" t="n">
         <v>11.3</v>
@@ -2898,46 +2965,46 @@
         <v>30</v>
       </c>
       <c r="T14" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="U14" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="V14" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W14" t="n">
         <v>10.7</v>
       </c>
       <c r="X14" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>21</v>
+        <v>21.3</v>
       </c>
       <c r="AA14" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="AB14" t="n">
-        <v>101.6</v>
+        <v>102.2</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF14" t="n">
         <v>3</v>
       </c>
-      <c r="AF14" t="n">
-        <v>2</v>
-      </c>
       <c r="AG14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH14" t="n">
         <v>27</v>
@@ -2946,22 +3013,22 @@
         <v>4</v>
       </c>
       <c r="AJ14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK14" t="n">
         <v>4</v>
       </c>
       <c r="AL14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN14" t="n">
         <v>16</v>
       </c>
       <c r="AO14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP14" t="n">
         <v>9</v>
@@ -2976,7 +3043,7 @@
         <v>20</v>
       </c>
       <c r="AT14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU14" t="n">
         <v>3</v>
@@ -3000,7 +3067,7 @@
         <v>7</v>
       </c>
       <c r="BB14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BC14" t="n">
         <v>2</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-17-2012-13</t>
+          <t>2012-12-17</t>
         </is>
       </c>
     </row>
@@ -3110,16 +3177,16 @@
         <v>2.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF15" t="n">
         <v>22</v>
       </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH15" t="n">
         <v>30</v>
@@ -3152,7 +3219,7 @@
         <v>29</v>
       </c>
       <c r="AR15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS15" t="n">
         <v>5</v>
@@ -3161,7 +3228,7 @@
         <v>2</v>
       </c>
       <c r="AU15" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AV15" t="n">
         <v>29</v>
@@ -3176,13 +3243,13 @@
         <v>11</v>
       </c>
       <c r="AZ15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA15" t="n">
         <v>1</v>
       </c>
       <c r="BB15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC15" t="n">
         <v>8</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-17-2012-13</t>
+          <t>2012-12-17</t>
         </is>
       </c>
     </row>
@@ -3214,91 +3281,91 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F16" t="n">
         <v>6</v>
       </c>
       <c r="G16" t="n">
-        <v>0.727</v>
+        <v>0.714</v>
       </c>
       <c r="H16" t="n">
         <v>48.5</v>
       </c>
       <c r="I16" t="n">
-        <v>36.3</v>
+        <v>36.6</v>
       </c>
       <c r="J16" t="n">
-        <v>82.7</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>0.439</v>
+        <v>0.442</v>
       </c>
       <c r="L16" t="n">
         <v>5.5</v>
       </c>
       <c r="M16" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="N16" t="n">
-        <v>0.366</v>
+        <v>0.36</v>
       </c>
       <c r="O16" t="n">
-        <v>18.2</v>
+        <v>18.4</v>
       </c>
       <c r="P16" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.802</v>
+        <v>0.804</v>
       </c>
       <c r="R16" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="S16" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="T16" t="n">
-        <v>42.7</v>
+        <v>42.3</v>
       </c>
       <c r="U16" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="V16" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W16" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="X16" t="n">
         <v>5.7</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA16" t="n">
         <v>21</v>
       </c>
       <c r="AB16" t="n">
-        <v>96.40000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC16" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG16" t="n">
         <v>5</v>
@@ -3307,13 +3374,13 @@
         <v>14</v>
       </c>
       <c r="AI16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>17</v>
       </c>
-      <c r="AJ16" t="n">
-        <v>18</v>
-      </c>
       <c r="AK16" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AL16" t="n">
         <v>27</v>
@@ -3322,28 +3389,28 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AO16" t="n">
         <v>8</v>
       </c>
       <c r="AP16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT16" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AU16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV16" t="n">
         <v>17</v>
@@ -3358,16 +3425,16 @@
         <v>21</v>
       </c>
       <c r="AZ16" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BA16" t="n">
         <v>8</v>
       </c>
       <c r="BB16" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BC16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-17-2012-13</t>
+          <t>2012-12-17</t>
         </is>
       </c>
     </row>
@@ -3474,16 +3541,16 @@
         <v>5</v>
       </c>
       <c r="AD17" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH17" t="n">
         <v>22</v>
@@ -3504,16 +3571,16 @@
         <v>11</v>
       </c>
       <c r="AN17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO17" t="n">
         <v>16</v>
       </c>
       <c r="AP17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR17" t="n">
         <v>29</v>
@@ -3528,7 +3595,7 @@
         <v>4</v>
       </c>
       <c r="AV17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW17" t="n">
         <v>17</v>
@@ -3546,7 +3613,7 @@
         <v>17</v>
       </c>
       <c r="BB17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC17" t="n">
         <v>6</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-17-2012-13</t>
+          <t>2012-12-17</t>
         </is>
       </c>
     </row>
@@ -3656,19 +3723,19 @@
         <v>-1.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE18" t="n">
         <v>14</v>
       </c>
       <c r="AF18" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI18" t="n">
         <v>11</v>
@@ -3677,7 +3744,7 @@
         <v>1</v>
       </c>
       <c r="AK18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL18" t="n">
         <v>24</v>
@@ -3701,19 +3768,19 @@
         <v>7</v>
       </c>
       <c r="AS18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT18" t="n">
         <v>12</v>
       </c>
       <c r="AU18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV18" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW18" t="n">
         <v>5</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>4</v>
       </c>
       <c r="AX18" t="n">
         <v>2</v>
@@ -3725,7 +3792,7 @@
         <v>12</v>
       </c>
       <c r="BA18" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BB18" t="n">
         <v>17</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-17-2012-13</t>
+          <t>2012-12-17</t>
         </is>
       </c>
     </row>
@@ -3760,85 +3827,85 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" t="n">
         <v>12</v>
       </c>
       <c r="F19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G19" t="n">
-        <v>0.545</v>
+        <v>0.571</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
       </c>
       <c r="I19" t="n">
-        <v>35.3</v>
+        <v>35.1</v>
       </c>
       <c r="J19" t="n">
-        <v>81.59999999999999</v>
+        <v>81</v>
       </c>
       <c r="K19" t="n">
-        <v>0.433</v>
+        <v>0.434</v>
       </c>
       <c r="L19" t="n">
         <v>5.7</v>
       </c>
       <c r="M19" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="N19" t="n">
-        <v>0.296</v>
+        <v>0.298</v>
       </c>
       <c r="O19" t="n">
-        <v>19.3</v>
+        <v>19.9</v>
       </c>
       <c r="P19" t="n">
-        <v>26.6</v>
+        <v>27.3</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.725</v>
+        <v>0.726</v>
       </c>
       <c r="R19" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="S19" t="n">
-        <v>31.7</v>
+        <v>31.9</v>
       </c>
       <c r="T19" t="n">
-        <v>45.3</v>
+        <v>45.4</v>
       </c>
       <c r="U19" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="V19" t="n">
         <v>15.6</v>
       </c>
       <c r="W19" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X19" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z19" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="AA19" t="n">
         <v>23.3</v>
       </c>
       <c r="AB19" t="n">
-        <v>95.7</v>
+        <v>95.8</v>
       </c>
       <c r="AC19" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE19" t="n">
         <v>14</v>
@@ -3847,31 +3914,31 @@
         <v>9</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH19" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI19" t="n">
         <v>24</v>
       </c>
-      <c r="AI19" t="n">
-        <v>23</v>
-      </c>
       <c r="AJ19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK19" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AL19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN19" t="n">
         <v>30</v>
       </c>
       <c r="AO19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP19" t="n">
         <v>3</v>
@@ -3892,16 +3959,16 @@
         <v>15</v>
       </c>
       <c r="AV19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ19" t="n">
         <v>3</v>
@@ -3913,7 +3980,7 @@
         <v>20</v>
       </c>
       <c r="BC19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-17-2012-13</t>
+          <t>2012-12-17</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-6.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
@@ -4035,16 +4102,16 @@
         <v>15</v>
       </c>
       <c r="AI20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ20" t="n">
         <v>28</v>
       </c>
       <c r="AK20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM20" t="n">
         <v>17</v>
@@ -4068,7 +4135,7 @@
         <v>23</v>
       </c>
       <c r="AT20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU20" t="n">
         <v>17</v>
@@ -4080,7 +4147,7 @@
         <v>29</v>
       </c>
       <c r="AX20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY20" t="n">
         <v>28</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-17-2012-13</t>
+          <t>2012-12-17</t>
         </is>
       </c>
     </row>
@@ -4124,61 +4191,61 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21" t="n">
         <v>18</v>
       </c>
       <c r="F21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>0.75</v>
+        <v>0.783</v>
       </c>
       <c r="H21" t="n">
         <v>48.2</v>
       </c>
       <c r="I21" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J21" t="n">
-        <v>83.3</v>
+        <v>83</v>
       </c>
       <c r="K21" t="n">
         <v>0.45</v>
       </c>
       <c r="L21" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="M21" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="N21" t="n">
-        <v>0.405</v>
+        <v>0.41</v>
       </c>
       <c r="O21" t="n">
-        <v>16.1</v>
+        <v>16.4</v>
       </c>
       <c r="P21" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.75</v>
+        <v>0.756</v>
       </c>
       <c r="R21" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="S21" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="T21" t="n">
-        <v>39.7</v>
+        <v>39.4</v>
       </c>
       <c r="U21" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="V21" t="n">
-        <v>10.8</v>
+        <v>10.6</v>
       </c>
       <c r="W21" t="n">
         <v>8.800000000000001</v>
@@ -4193,16 +4260,16 @@
         <v>18.8</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="AB21" t="n">
-        <v>102.9</v>
+        <v>103.2</v>
       </c>
       <c r="AC21" t="n">
-        <v>6.3</v>
+        <v>7.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE21" t="n">
         <v>3</v>
@@ -4220,7 +4287,7 @@
         <v>9</v>
       </c>
       <c r="AJ21" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AK21" t="n">
         <v>11</v>
@@ -4232,19 +4299,19 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO21" t="n">
         <v>22</v>
       </c>
       <c r="AP21" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AQ21" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AR21" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AS21" t="n">
         <v>27</v>
@@ -4253,13 +4320,13 @@
         <v>28</v>
       </c>
       <c r="AU21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV21" t="n">
         <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX21" t="n">
         <v>28</v>
@@ -4271,13 +4338,13 @@
         <v>4</v>
       </c>
       <c r="BA21" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="BB21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-17-2012-13</t>
+          <t>2012-12-17</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F22" t="n">
         <v>4</v>
       </c>
       <c r="G22" t="n">
-        <v>0.833</v>
+        <v>0.826</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
@@ -4324,46 +4391,46 @@
         <v>37.5</v>
       </c>
       <c r="J22" t="n">
-        <v>77</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>0.487</v>
+        <v>0.489</v>
       </c>
       <c r="L22" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="M22" t="n">
-        <v>18.1</v>
+        <v>18.3</v>
       </c>
       <c r="N22" t="n">
-        <v>0.411</v>
+        <v>0.416</v>
       </c>
       <c r="O22" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="P22" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.842</v>
+        <v>0.839</v>
       </c>
       <c r="R22" t="n">
-        <v>9.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S22" t="n">
-        <v>32.5</v>
+        <v>32.4</v>
       </c>
       <c r="T22" t="n">
-        <v>42.4</v>
+        <v>42.1</v>
       </c>
       <c r="U22" t="n">
         <v>22.4</v>
       </c>
       <c r="V22" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="W22" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X22" t="n">
         <v>7.5</v>
@@ -4372,19 +4439,19 @@
         <v>3.6</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AA22" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AB22" t="n">
-        <v>105.8</v>
+        <v>105.7</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD22" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE22" t="n">
         <v>1</v>
@@ -4396,10 +4463,10 @@
         <v>1</v>
       </c>
       <c r="AH22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ22" t="n">
         <v>30</v>
@@ -4408,10 +4475,10 @@
         <v>2</v>
       </c>
       <c r="AL22" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AM22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN22" t="n">
         <v>1</v>
@@ -4438,7 +4505,7 @@
         <v>9</v>
       </c>
       <c r="AV22" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AW22" t="n">
         <v>22</v>
@@ -4450,7 +4517,7 @@
         <v>2</v>
       </c>
       <c r="AZ22" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BA22" t="n">
         <v>4</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-17-2012-13</t>
+          <t>2012-12-17</t>
         </is>
       </c>
     </row>
@@ -4488,106 +4555,106 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F23" t="n">
         <v>13</v>
       </c>
       <c r="G23" t="n">
-        <v>0.458</v>
+        <v>0.435</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.3</v>
+        <v>37</v>
       </c>
       <c r="J23" t="n">
-        <v>82.90000000000001</v>
+        <v>83</v>
       </c>
       <c r="K23" t="n">
-        <v>0.449</v>
+        <v>0.445</v>
       </c>
       <c r="L23" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="M23" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="N23" t="n">
-        <v>0.333</v>
+        <v>0.33</v>
       </c>
       <c r="O23" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="P23" t="n">
-        <v>16.4</v>
+        <v>16.8</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.792</v>
+        <v>0.788</v>
       </c>
       <c r="R23" t="n">
-        <v>10.3</v>
+        <v>10.5</v>
       </c>
       <c r="S23" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="T23" t="n">
         <v>43.4</v>
       </c>
       <c r="U23" t="n">
-        <v>22.8</v>
+        <v>22.4</v>
       </c>
       <c r="V23" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="W23" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="X23" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AA23" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="AB23" t="n">
-        <v>93</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>-1.8</v>
+        <v>-2.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE23" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AF23" t="n">
         <v>20</v>
       </c>
       <c r="AG23" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AH23" t="n">
         <v>27</v>
       </c>
       <c r="AI23" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AJ23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL23" t="n">
         <v>28</v>
@@ -4617,7 +4684,7 @@
         <v>8</v>
       </c>
       <c r="AU23" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AV23" t="n">
         <v>19</v>
@@ -4629,7 +4696,7 @@
         <v>21</v>
       </c>
       <c r="AY23" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ23" t="n">
         <v>15</v>
@@ -4638,7 +4705,7 @@
         <v>30</v>
       </c>
       <c r="BB23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC23" t="n">
         <v>20</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-17-2012-13</t>
+          <t>2012-12-17</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-2.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE24" t="n">
         <v>14</v>
@@ -4760,16 +4827,16 @@
         <v>17</v>
       </c>
       <c r="AH24" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AI24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ24" t="n">
         <v>5</v>
       </c>
       <c r="AK24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL24" t="n">
         <v>21</v>
@@ -4787,7 +4854,7 @@
         <v>29</v>
       </c>
       <c r="AQ24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR24" t="n">
         <v>20</v>
@@ -4796,7 +4863,7 @@
         <v>21</v>
       </c>
       <c r="AT24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU24" t="n">
         <v>19</v>
@@ -4820,7 +4887,7 @@
         <v>29</v>
       </c>
       <c r="BB24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC24" t="n">
         <v>21</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-17-2012-13</t>
+          <t>2012-12-17</t>
         </is>
       </c>
     </row>
@@ -4852,85 +4919,85 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F25" t="n">
         <v>15</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4</v>
+        <v>0.375</v>
       </c>
       <c r="H25" t="n">
         <v>48.6</v>
       </c>
       <c r="I25" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="J25" t="n">
         <v>85.2</v>
       </c>
       <c r="K25" t="n">
-        <v>0.446</v>
+        <v>0.444</v>
       </c>
       <c r="L25" t="n">
         <v>6.3</v>
       </c>
       <c r="M25" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="N25" t="n">
-        <v>0.341</v>
+        <v>0.34</v>
       </c>
       <c r="O25" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="P25" t="n">
-        <v>20</v>
+        <v>20.3</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.75</v>
+        <v>0.751</v>
       </c>
       <c r="R25" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="S25" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="T25" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="U25" t="n">
-        <v>21.7</v>
+        <v>21.4</v>
       </c>
       <c r="V25" t="n">
-        <v>13.9</v>
+        <v>14.1</v>
       </c>
       <c r="W25" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X25" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="Y25" t="n">
         <v>5.3</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA25" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AB25" t="n">
-        <v>97.40000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="AC25" t="n">
-        <v>-3.5</v>
+        <v>-4.1</v>
       </c>
       <c r="AD25" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AE25" t="n">
         <v>23</v>
@@ -4942,7 +5009,7 @@
         <v>23</v>
       </c>
       <c r="AH25" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI25" t="n">
         <v>5</v>
@@ -4954,13 +5021,13 @@
         <v>14</v>
       </c>
       <c r="AL25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM25" t="n">
         <v>20</v>
       </c>
-      <c r="AM25" t="n">
-        <v>19</v>
-      </c>
       <c r="AN25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO25" t="n">
         <v>26</v>
@@ -4972,25 +5039,25 @@
         <v>18</v>
       </c>
       <c r="AR25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AS25" t="n">
         <v>29</v>
       </c>
       <c r="AT25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU25" t="n">
         <v>16</v>
       </c>
       <c r="AV25" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW25" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AX25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY25" t="n">
         <v>17</v>
@@ -5005,7 +5072,7 @@
         <v>13</v>
       </c>
       <c r="BC25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-17-2012-13</t>
+          <t>2012-12-17</t>
         </is>
       </c>
     </row>
@@ -5112,16 +5179,16 @@
         <v>-2.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AE26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF26" t="n">
         <v>15</v>
       </c>
       <c r="AG26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH26" t="n">
         <v>1</v>
@@ -5130,7 +5197,7 @@
         <v>18</v>
       </c>
       <c r="AJ26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK26" t="n">
         <v>21</v>
@@ -5148,13 +5215,13 @@
         <v>19</v>
       </c>
       <c r="AP26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ26" t="n">
         <v>15</v>
       </c>
       <c r="AR26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS26" t="n">
         <v>30</v>
@@ -5172,7 +5239,7 @@
         <v>8</v>
       </c>
       <c r="AX26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY26" t="n">
         <v>6</v>
@@ -5181,10 +5248,10 @@
         <v>14</v>
       </c>
       <c r="BA26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC26" t="n">
         <v>22</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-17-2012-13</t>
+          <t>2012-12-17</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E27" t="n">
         <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G27" t="n">
-        <v>0.292</v>
+        <v>0.304</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
@@ -5240,88 +5307,88 @@
         <v>0.429</v>
       </c>
       <c r="L27" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="M27" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.337</v>
+      </c>
+      <c r="O27" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="P27" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.768</v>
+      </c>
+      <c r="R27" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="S27" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="T27" t="n">
+        <v>41</v>
+      </c>
+      <c r="U27" t="n">
         <v>18.3</v>
       </c>
-      <c r="N27" t="n">
-        <v>0.334</v>
-      </c>
-      <c r="O27" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="P27" t="n">
-        <v>22</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0.769</v>
-      </c>
-      <c r="R27" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="S27" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="T27" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="U27" t="n">
-        <v>18.2</v>
-      </c>
       <c r="V27" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="W27" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X27" t="n">
         <v>4.4</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="AA27" t="n">
         <v>19.3</v>
       </c>
       <c r="AB27" t="n">
-        <v>94.40000000000001</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AC27" t="n">
-        <v>-6.6</v>
+        <v>-6.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
       </c>
       <c r="AF27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI27" t="n">
         <v>20</v>
       </c>
       <c r="AJ27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK27" t="n">
         <v>25</v>
       </c>
       <c r="AL27" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AM27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN27" t="n">
         <v>25</v>
@@ -5336,22 +5403,22 @@
         <v>11</v>
       </c>
       <c r="AR27" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AS27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT27" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AU27" t="n">
         <v>30</v>
       </c>
       <c r="AV27" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AW27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AX27" t="n">
         <v>25</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-17-2012-13</t>
+          <t>2012-12-17</t>
         </is>
       </c>
     </row>
@@ -5398,58 +5465,58 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E28" t="n">
         <v>19</v>
       </c>
       <c r="F28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G28" t="n">
-        <v>0.731</v>
+        <v>0.76</v>
       </c>
       <c r="H28" t="n">
         <v>48.8</v>
       </c>
       <c r="I28" t="n">
-        <v>39.7</v>
+        <v>39.8</v>
       </c>
       <c r="J28" t="n">
-        <v>82.7</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>0.48</v>
+        <v>0.481</v>
       </c>
       <c r="L28" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="M28" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="N28" t="n">
-        <v>0.378</v>
+        <v>0.38</v>
       </c>
       <c r="O28" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="P28" t="n">
         <v>21.1</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.783</v>
+        <v>0.786</v>
       </c>
       <c r="R28" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="S28" t="n">
-        <v>33.2</v>
+        <v>33.4</v>
       </c>
       <c r="T28" t="n">
-        <v>42.5</v>
+        <v>42.7</v>
       </c>
       <c r="U28" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="V28" t="n">
         <v>15.4</v>
@@ -5458,7 +5525,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="X28" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y28" t="n">
         <v>5.2</v>
@@ -5467,25 +5534,25 @@
         <v>17.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="AB28" t="n">
-        <v>104.3</v>
+        <v>104.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>6.9</v>
+        <v>7.8</v>
       </c>
       <c r="AD28" t="n">
         <v>2</v>
       </c>
       <c r="AE28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF28" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AG28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH28" t="n">
         <v>7</v>
@@ -5494,13 +5561,13 @@
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK28" t="n">
         <v>3</v>
       </c>
       <c r="AL28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM28" t="n">
         <v>8</v>
@@ -5515,7 +5582,7 @@
         <v>24</v>
       </c>
       <c r="AQ28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR28" t="n">
         <v>27</v>
@@ -5524,7 +5591,7 @@
         <v>3</v>
       </c>
       <c r="AT28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU28" t="n">
         <v>1</v>
@@ -5533,7 +5600,7 @@
         <v>20</v>
       </c>
       <c r="AW28" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AX28" t="n">
         <v>18</v>
@@ -5542,7 +5609,7 @@
         <v>16</v>
       </c>
       <c r="AZ28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA28" t="n">
         <v>27</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-17-2012-13</t>
+          <t>2012-12-17</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-5.7</v>
       </c>
       <c r="AD29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE29" t="n">
         <v>27</v>
@@ -5673,10 +5740,10 @@
         <v>4</v>
       </c>
       <c r="AI29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK29" t="n">
         <v>26</v>
@@ -5691,7 +5758,7 @@
         <v>27</v>
       </c>
       <c r="AO29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP29" t="n">
         <v>14</v>
@@ -5703,13 +5770,13 @@
         <v>22</v>
       </c>
       <c r="AS29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT29" t="n">
         <v>23</v>
       </c>
       <c r="AU29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV29" t="n">
         <v>3</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-17-2012-13</t>
+          <t>2012-12-17</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>0.7</v>
       </c>
       <c r="AD30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE30" t="n">
         <v>9</v>
@@ -5852,16 +5919,16 @@
         <v>15</v>
       </c>
       <c r="AH30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI30" t="n">
         <v>12</v>
       </c>
-      <c r="AI30" t="n">
-        <v>13</v>
-      </c>
       <c r="AJ30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL30" t="n">
         <v>17</v>
@@ -5891,13 +5958,13 @@
         <v>9</v>
       </c>
       <c r="AU30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV30" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AW30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX30" t="n">
         <v>4</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-17-2012-13</t>
+          <t>2012-12-17</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-7.7</v>
       </c>
       <c r="AD31" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE31" t="n">
         <v>30</v>
@@ -6040,13 +6107,13 @@
         <v>30</v>
       </c>
       <c r="AJ31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK31" t="n">
         <v>30</v>
       </c>
       <c r="AL31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM31" t="n">
         <v>10</v>
@@ -6061,10 +6128,10 @@
         <v>25</v>
       </c>
       <c r="AQ31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS31" t="n">
         <v>11</v>
@@ -6079,13 +6146,13 @@
         <v>23</v>
       </c>
       <c r="AW31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX31" t="n">
         <v>22</v>
       </c>
       <c r="AY31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ31" t="n">
         <v>23</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-17-2012-13</t>
+          <t>2012-12-17</t>
         </is>
       </c>
     </row>
